--- a/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-57.xlsx
+++ b/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-57.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,6 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -443,18 +442,17 @@
           <t>Program.Scan(System.String,</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Int32,</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Int32,</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>Int32)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -473,7 +471,6 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -492,7 +489,6 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -511,7 +507,6 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -530,7 +525,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -545,7 +539,6 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -564,7 +557,6 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -583,7 +575,6 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,7 +593,6 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -621,7 +611,6 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -640,7 +629,6 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -655,7 +643,6 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -674,7 +661,6 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -689,7 +675,6 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,7 +689,6 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -716,14 +700,13 @@
           <t>call</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>CORINFO_HELP_RNGCHKFAIL</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -742,7 +725,6 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -765,7 +747,6 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
